--- a/biology/Botanique/Breganze_rosso_superiore/Breganze_rosso_superiore.xlsx
+++ b/biology/Botanique/Breganze_rosso_superiore/Breganze_rosso_superiore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Breganze rosso superiore est un vin sec italien de la région Vénétie doté d'une appellation DOC depuis le 18 juillet 1969. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret. 
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Vicence dans les communes de Bassano del Grappa, Breganze, Fara Vicentino, Lugo di Vicenza, Marostica, Mason Vicentino, Molvena, Montecchio Precalcino, Pianezze, Salcedo, Sandrigo, Sarcedo et Zugliano. Les vignobles se situent sur des pentes des collines entre les fleuves Brenta et Astico (un affluent du Bacchiglione).
 Le vin rouge sec du Breganze rosso superiore répond à un cahier des charges plus exigeant que le Breganze rosso, essentiellement en relation avec le titre alcoolique.
@@ -544,7 +558,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : rouge rubis vif.
 odeur : vieux, caractéristique.
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -605,6 +623,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -630,7 +650,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
  nessun dato disponibile </t>
